--- a/EJ4/Integrador/Mediciones/Mediciones Integrador.xlsx
+++ b/EJ4/Integrador/Mediciones/Mediciones Integrador.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -972,18 +972,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,6 +989,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5453,7 +5453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -5874,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6629,12 +6629,12 @@
       <c r="D6" s="47"/>
       <c r="E6" s="48"/>
       <c r="F6" s="49"/>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="46" t="s">
@@ -6644,12 +6644,12 @@
       <c r="D7" s="47"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="81"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
@@ -6684,8 +6684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6714,13 +6714,13 @@
       <c r="E1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="75"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="59"/>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -6808,15 +6808,15 @@
         <v>20</v>
       </c>
       <c r="H4" s="37">
-        <f t="shared" ref="H4:H40" si="0">IF(E4 = 0,,F4/E4)</f>
+        <f t="shared" ref="H4:H17" si="0">IF(E4 = 0,,F4/E4)</f>
         <v>6.1818181818181813E-7</v>
       </c>
       <c r="I4" s="37">
-        <f t="shared" ref="I4:I40" si="1">IF(H4=0,,C4/H4)</f>
+        <f t="shared" ref="I4:I17" si="1">IF(H4=0,,C4/H4)</f>
         <v>205441.17647058825</v>
       </c>
       <c r="J4" s="41">
-        <f t="shared" ref="J4:J40" si="2" xml:space="preserve"> D4-G4</f>
+        <f t="shared" ref="J4:J17" si="2" xml:space="preserve"> D4-G4</f>
         <v>-60</v>
       </c>
     </row>
@@ -6832,7 +6832,7 @@
         <v>-60</v>
       </c>
       <c r="E5" s="38">
-        <f t="shared" ref="E5:E40" si="3">E4</f>
+        <f t="shared" ref="E5:E17" si="3">E4</f>
         <v>330000</v>
       </c>
       <c r="F5" s="39">
